--- a/skills/skills.xlsx
+++ b/skills/skills.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Work\Homepage\website-nasahl\skills\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4693CA61-BBE4-4942-8E04-AA7FABF2026B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83188758-1544-470B-B31F-3AE473830291}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="67080" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{FFED163B-1A79-4166-8907-A941EF55E520}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="80">
   <si>
     <t>Methodik</t>
   </si>
@@ -126,9 +126,6 @@
     <t>Java FX</t>
   </si>
   <si>
-    <t>Apace CXF</t>
-  </si>
-  <si>
     <t>Html, CSS</t>
   </si>
   <si>
@@ -253,6 +250,21 @@
   </si>
   <si>
     <t>IDE</t>
+  </si>
+  <si>
+    <t>Apache CXF</t>
+  </si>
+  <si>
+    <t>Kafka</t>
+  </si>
+  <si>
+    <t>Mac OS</t>
+  </si>
+  <si>
+    <t>Code Build</t>
+  </si>
+  <si>
+    <t>Code Pipeline</t>
   </si>
 </sst>
 </file>
@@ -605,10 +617,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A1FE19F-B544-42DE-B99C-7467554A9C25}">
-  <dimension ref="A1:D94"/>
+  <dimension ref="A1:D99"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
-      <selection activeCell="G74" sqref="G74"/>
+    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
+      <selection activeCell="K89" sqref="K89"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -692,7 +704,7 @@
         <v>10</v>
       </c>
       <c r="C15">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
@@ -729,7 +741,7 @@
         <v>15</v>
       </c>
       <c r="C21">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.3">
@@ -766,7 +778,7 @@
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B26" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C26">
         <v>4</v>
@@ -854,15 +866,15 @@
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B39" t="s">
-        <v>30</v>
+        <v>76</v>
       </c>
       <c r="C39">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B40" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C40">
         <v>2</v>
@@ -870,151 +882,143 @@
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B41" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C41">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B42" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C42">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A44" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B45" t="s">
-        <v>36</v>
-      </c>
-      <c r="C45">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B43" t="s">
+        <v>75</v>
+      </c>
+      <c r="C43">
         <v>4</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B46" t="s">
-        <v>37</v>
-      </c>
-      <c r="C46">
-        <v>4</v>
+      <c r="A46" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B47" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="C47">
-        <v>2</v>
-      </c>
-      <c r="D47">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B48" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C48">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B49" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C49">
-        <v>4</v>
+        <v>2</v>
+      </c>
+      <c r="D49">
+        <v>0</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B50" t="s">
+        <v>38</v>
+      </c>
+      <c r="C50">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B51" t="s">
+        <v>39</v>
+      </c>
+      <c r="C51">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B52" t="s">
+        <v>40</v>
+      </c>
+      <c r="C52">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A55" t="s">
         <v>41</v>
-      </c>
-      <c r="C50">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A53" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B54" t="s">
-        <v>54</v>
-      </c>
-      <c r="C54">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B55" t="s">
-        <v>55</v>
-      </c>
-      <c r="C55">
-        <v>4</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B56" t="s">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="C56">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B57" t="s">
-        <v>44</v>
+        <v>54</v>
       </c>
       <c r="C57">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B58" t="s">
-        <v>49</v>
+        <v>77</v>
       </c>
       <c r="C58">
-        <v>2</v>
-      </c>
-      <c r="D58">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B59" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="C59">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B60" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="C60">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B61" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C61">
-        <v>3</v>
+        <v>2</v>
+      </c>
+      <c r="D61">
+        <v>0</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B62" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="C62">
         <v>3</v>
@@ -1022,7 +1026,7 @@
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B63" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="C63">
         <v>4</v>
@@ -1030,15 +1034,15 @@
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B64" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="C64">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B65" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="C65">
         <v>3</v>
@@ -1046,148 +1050,182 @@
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B66" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="C66">
-        <v>3</v>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B67" t="s">
+        <v>50</v>
+      </c>
+      <c r="C67">
+        <v>4</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A68" t="s">
-        <v>10</v>
-      </c>
-      <c r="D68">
-        <v>0</v>
+      <c r="B68" t="s">
+        <v>51</v>
+      </c>
+      <c r="C68">
+        <v>3</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B69" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B70" t="s">
-        <v>62</v>
+        <v>52</v>
+      </c>
+      <c r="C69">
+        <v>3</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B71" t="s">
-        <v>63</v>
+      <c r="A71" t="s">
+        <v>10</v>
+      </c>
+      <c r="D71">
+        <v>0</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B72" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B73" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B74" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B75" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B76" t="s">
-        <v>68</v>
+        <v>78</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B77" t="s">
-        <v>69</v>
+        <v>79</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B78" t="s">
-        <v>41</v>
+        <v>64</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B79" t="s">
-        <v>39</v>
+        <v>65</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B80" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B81" t="s">
-        <v>71</v>
+        <v>67</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B82" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B83" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A84" t="s">
-        <v>56</v>
+      <c r="B84" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B85" t="s">
-        <v>57</v>
-      </c>
-      <c r="C85">
-        <v>5</v>
+        <v>69</v>
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B86" t="s">
-        <v>58</v>
-      </c>
-      <c r="C86">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A89" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B90" t="s">
+        <v>56</v>
+      </c>
+      <c r="C90">
         <v>5</v>
       </c>
     </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B87" t="s">
-        <v>59</v>
-      </c>
-      <c r="C87">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B88" t="s">
-        <v>60</v>
-      </c>
-      <c r="C88">
-        <v>4</v>
-      </c>
-    </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A91" t="s">
-        <v>75</v>
+      <c r="B91" t="s">
+        <v>57</v>
+      </c>
+      <c r="C91">
+        <v>5</v>
       </c>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B92" t="s">
-        <v>72</v>
+        <v>58</v>
       </c>
       <c r="C92">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B93" t="s">
+        <v>59</v>
+      </c>
+      <c r="C93">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A96" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="97" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B97" t="s">
+        <v>71</v>
+      </c>
+      <c r="C97">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="98" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B98" t="s">
+        <v>72</v>
+      </c>
+      <c r="C98">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="99" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B99" t="s">
         <v>73</v>
       </c>
-      <c r="C93">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B94" t="s">
-        <v>74</v>
-      </c>
-      <c r="C94">
+      <c r="C99">
         <v>3</v>
       </c>
     </row>
